--- a/Data/EC/NIT-9001388580.xlsx
+++ b/Data/EC/NIT-9001388580.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0B4B60B7-AAEB-4C22-A876-FA9D8115D8C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5FC4028B-997C-4C50-8265-3E3113C8CDDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{77B9C0D4-9E8B-4F8D-BABD-76F94C9DE008}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{71BC5DA6-338D-4574-9479-226A756EB4FB}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -65,154 +65,154 @@
     <t>CC</t>
   </si>
   <si>
+    <t>1090436344</t>
+  </si>
+  <si>
+    <t>JESSICA JOHANNA FLOREZ HERNANDEZ</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>1128053073</t>
+  </si>
+  <si>
+    <t>HENRY DONADO ESPEJO</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>2103</t>
+  </si>
+  <si>
     <t>9299215</t>
   </si>
   <si>
     <t>WILLIAM DE JESUS PUELLO ELLES</t>
   </si>
   <si>
+    <t>2109</t>
+  </si>
+  <si>
+    <t>2110</t>
+  </si>
+  <si>
+    <t>2111</t>
+  </si>
+  <si>
+    <t>2112</t>
+  </si>
+  <si>
+    <t>2201</t>
+  </si>
+  <si>
+    <t>2202</t>
+  </si>
+  <si>
+    <t>2203</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
+    <t>73198600</t>
+  </si>
+  <si>
+    <t>ROBERTO CARLOS ARELLANO CHAVEZ</t>
+  </si>
+  <si>
+    <t>2205</t>
+  </si>
+  <si>
+    <t>2206</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>2210</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>2212</t>
+  </si>
+  <si>
+    <t>2301</t>
+  </si>
+  <si>
+    <t>2302</t>
+  </si>
+  <si>
+    <t>2303</t>
+  </si>
+  <si>
+    <t>2304</t>
+  </si>
+  <si>
+    <t>2305</t>
+  </si>
+  <si>
+    <t>2306</t>
+  </si>
+  <si>
+    <t>2307</t>
+  </si>
+  <si>
+    <t>2308</t>
+  </si>
+  <si>
+    <t>2309</t>
+  </si>
+  <si>
+    <t>2310</t>
+  </si>
+  <si>
+    <t>2311</t>
+  </si>
+  <si>
+    <t>2312</t>
+  </si>
+  <si>
+    <t>2401</t>
+  </si>
+  <si>
+    <t>2402</t>
+  </si>
+  <si>
+    <t>2403</t>
+  </si>
+  <si>
+    <t>2404</t>
+  </si>
+  <si>
+    <t>2405</t>
+  </si>
+  <si>
+    <t>2406</t>
+  </si>
+  <si>
+    <t>2407</t>
+  </si>
+  <si>
+    <t>2408</t>
+  </si>
+  <si>
+    <t>2409</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
     <t>2411</t>
-  </si>
-  <si>
-    <t>2410</t>
-  </si>
-  <si>
-    <t>2409</t>
-  </si>
-  <si>
-    <t>2408</t>
-  </si>
-  <si>
-    <t>2407</t>
-  </si>
-  <si>
-    <t>2406</t>
-  </si>
-  <si>
-    <t>2405</t>
-  </si>
-  <si>
-    <t>2404</t>
-  </si>
-  <si>
-    <t>2403</t>
-  </si>
-  <si>
-    <t>2402</t>
-  </si>
-  <si>
-    <t>2401</t>
-  </si>
-  <si>
-    <t>2312</t>
-  </si>
-  <si>
-    <t>2311</t>
-  </si>
-  <si>
-    <t>2310</t>
-  </si>
-  <si>
-    <t>2309</t>
-  </si>
-  <si>
-    <t>2308</t>
-  </si>
-  <si>
-    <t>2307</t>
-  </si>
-  <si>
-    <t>2306</t>
-  </si>
-  <si>
-    <t>2305</t>
-  </si>
-  <si>
-    <t>2304</t>
-  </si>
-  <si>
-    <t>2303</t>
-  </si>
-  <si>
-    <t>2302</t>
-  </si>
-  <si>
-    <t>2301</t>
-  </si>
-  <si>
-    <t>2212</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>2206</t>
-  </si>
-  <si>
-    <t>2205</t>
-  </si>
-  <si>
-    <t>2204</t>
-  </si>
-  <si>
-    <t>2203</t>
-  </si>
-  <si>
-    <t>2202</t>
-  </si>
-  <si>
-    <t>2201</t>
-  </si>
-  <si>
-    <t>2112</t>
-  </si>
-  <si>
-    <t>2111</t>
-  </si>
-  <si>
-    <t>2110</t>
-  </si>
-  <si>
-    <t>2109</t>
-  </si>
-  <si>
-    <t>1090436344</t>
-  </si>
-  <si>
-    <t>JESSICA JOHANNA FLOREZ HERNANDEZ</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>1128053073</t>
-  </si>
-  <si>
-    <t>HENRY DONADO ESPEJO</t>
-  </si>
-  <si>
-    <t>2103</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>73198600</t>
-  </si>
-  <si>
-    <t>ROBERTO CARLOS ARELLANO CHAVEZ</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -311,7 +311,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -324,9 +326,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -526,23 +526,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -570,10 +570,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -626,7 +626,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46533095-5457-9F33-167D-D1DB58CA2AF8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8602599A-9DA3-686E-C02F-3CF80A41DBD3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -977,7 +977,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72A8E553-474D-438F-985D-44D0457461CF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8A8FD82-F54D-4C63-B7B9-DBBA139CB074}">
   <dimension ref="B2:J65"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1155,10 +1155,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>180000</v>
+        <v>63835</v>
       </c>
       <c r="G16" s="18">
-        <v>4500000</v>
+        <v>2812816</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1169,19 +1169,19 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F17" s="18">
-        <v>180000</v>
+        <v>15600</v>
       </c>
       <c r="G17" s="18">
-        <v>4500000</v>
+        <v>975000</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1192,19 +1192,19 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F18" s="18">
-        <v>180000</v>
+        <v>39000</v>
       </c>
       <c r="G18" s="18">
-        <v>4500000</v>
+        <v>975000</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1215,19 +1215,19 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F19" s="18">
         <v>180000</v>
       </c>
       <c r="G19" s="18">
-        <v>4500000</v>
+        <v>6215216</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1238,19 +1238,19 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F20" s="18">
         <v>180000</v>
       </c>
       <c r="G20" s="18">
-        <v>4500000</v>
+        <v>6215216</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1261,19 +1261,19 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F21" s="18">
         <v>180000</v>
       </c>
       <c r="G21" s="18">
-        <v>4500000</v>
+        <v>6215216</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1284,19 +1284,19 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F22" s="18">
         <v>180000</v>
       </c>
       <c r="G22" s="18">
-        <v>4500000</v>
+        <v>6215216</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1307,19 +1307,19 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F23" s="18">
         <v>180000</v>
       </c>
       <c r="G23" s="18">
-        <v>4500000</v>
+        <v>6215216</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1330,19 +1330,19 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F24" s="18">
         <v>180000</v>
       </c>
       <c r="G24" s="18">
-        <v>4500000</v>
+        <v>6215216</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1353,19 +1353,19 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F25" s="18">
         <v>180000</v>
       </c>
       <c r="G25" s="18">
-        <v>4500000</v>
+        <v>6215216</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1376,19 +1376,19 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F26" s="18">
         <v>180000</v>
       </c>
       <c r="G26" s="18">
-        <v>4500000</v>
+        <v>6215216</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1399,19 +1399,19 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F27" s="18">
-        <v>180000</v>
+        <v>40000</v>
       </c>
       <c r="G27" s="18">
-        <v>4500000</v>
+        <v>1496865</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
@@ -1422,19 +1422,19 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F28" s="18">
         <v>180000</v>
       </c>
       <c r="G28" s="18">
-        <v>4500000</v>
+        <v>6215216</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
@@ -1445,19 +1445,19 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F29" s="18">
-        <v>180000</v>
+        <v>40000</v>
       </c>
       <c r="G29" s="18">
-        <v>4500000</v>
+        <v>1496865</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -1468,19 +1468,19 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F30" s="18">
         <v>180000</v>
       </c>
       <c r="G30" s="18">
-        <v>4500000</v>
+        <v>6215216</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
@@ -1491,19 +1491,19 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F31" s="18">
         <v>180000</v>
       </c>
       <c r="G31" s="18">
-        <v>4500000</v>
+        <v>6215216</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
@@ -1514,19 +1514,19 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F32" s="18">
         <v>180000</v>
       </c>
       <c r="G32" s="18">
-        <v>4500000</v>
+        <v>6215216</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
@@ -1537,19 +1537,19 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F33" s="18">
         <v>180000</v>
       </c>
       <c r="G33" s="18">
-        <v>4500000</v>
+        <v>6215216</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
@@ -1560,19 +1560,19 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F34" s="18">
         <v>180000</v>
       </c>
       <c r="G34" s="18">
-        <v>4500000</v>
+        <v>6215216</v>
       </c>
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
@@ -1583,19 +1583,19 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F35" s="18">
         <v>180000</v>
       </c>
       <c r="G35" s="18">
-        <v>4500000</v>
+        <v>6215216</v>
       </c>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
@@ -1606,19 +1606,19 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F36" s="18">
         <v>180000</v>
       </c>
       <c r="G36" s="18">
-        <v>4500000</v>
+        <v>6215216</v>
       </c>
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
@@ -1629,19 +1629,19 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F37" s="18">
         <v>180000</v>
       </c>
       <c r="G37" s="18">
-        <v>4500000</v>
+        <v>6215216</v>
       </c>
       <c r="H37" s="19"/>
       <c r="I37" s="19"/>
@@ -1652,19 +1652,19 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F38" s="18">
         <v>180000</v>
       </c>
       <c r="G38" s="18">
-        <v>4500000</v>
+        <v>6215216</v>
       </c>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
@@ -1675,19 +1675,19 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F39" s="18">
         <v>180000</v>
       </c>
       <c r="G39" s="18">
-        <v>4500000</v>
+        <v>6215216</v>
       </c>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
@@ -1698,19 +1698,19 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F40" s="18">
         <v>180000</v>
       </c>
       <c r="G40" s="18">
-        <v>4500000</v>
+        <v>6215216</v>
       </c>
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
@@ -1721,19 +1721,19 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F41" s="18">
         <v>180000</v>
       </c>
       <c r="G41" s="18">
-        <v>4500000</v>
+        <v>6215216</v>
       </c>
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
@@ -1744,19 +1744,19 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F42" s="18">
         <v>180000</v>
       </c>
       <c r="G42" s="18">
-        <v>4500000</v>
+        <v>6215216</v>
       </c>
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
@@ -1767,19 +1767,19 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F43" s="18">
         <v>180000</v>
       </c>
       <c r="G43" s="18">
-        <v>4500000</v>
+        <v>6215216</v>
       </c>
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
@@ -1790,19 +1790,19 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F44" s="18">
         <v>180000</v>
       </c>
       <c r="G44" s="18">
-        <v>4500000</v>
+        <v>6215216</v>
       </c>
       <c r="H44" s="19"/>
       <c r="I44" s="19"/>
@@ -1813,19 +1813,19 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F45" s="18">
         <v>180000</v>
       </c>
       <c r="G45" s="18">
-        <v>4500000</v>
+        <v>6215216</v>
       </c>
       <c r="H45" s="19"/>
       <c r="I45" s="19"/>
@@ -1836,19 +1836,19 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F46" s="18">
         <v>180000</v>
       </c>
       <c r="G46" s="18">
-        <v>4500000</v>
+        <v>6215216</v>
       </c>
       <c r="H46" s="19"/>
       <c r="I46" s="19"/>
@@ -1859,19 +1859,19 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F47" s="18">
         <v>180000</v>
       </c>
       <c r="G47" s="18">
-        <v>4500000</v>
+        <v>6215216</v>
       </c>
       <c r="H47" s="19"/>
       <c r="I47" s="19"/>
@@ -1882,19 +1882,19 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F48" s="18">
         <v>180000</v>
       </c>
       <c r="G48" s="18">
-        <v>4500000</v>
+        <v>6215216</v>
       </c>
       <c r="H48" s="19"/>
       <c r="I48" s="19"/>
@@ -1905,19 +1905,19 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="F49" s="18">
         <v>180000</v>
       </c>
       <c r="G49" s="18">
-        <v>4500000</v>
+        <v>6215216</v>
       </c>
       <c r="H49" s="19"/>
       <c r="I49" s="19"/>
@@ -1928,19 +1928,19 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F50" s="18">
         <v>180000</v>
       </c>
       <c r="G50" s="18">
-        <v>4500000</v>
+        <v>6215216</v>
       </c>
       <c r="H50" s="19"/>
       <c r="I50" s="19"/>
@@ -1951,19 +1951,19 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F51" s="18">
         <v>180000</v>
       </c>
       <c r="G51" s="18">
-        <v>4500000</v>
+        <v>6215216</v>
       </c>
       <c r="H51" s="19"/>
       <c r="I51" s="19"/>
@@ -1974,19 +1974,19 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F52" s="18">
         <v>180000</v>
       </c>
       <c r="G52" s="18">
-        <v>4500000</v>
+        <v>6215216</v>
       </c>
       <c r="H52" s="19"/>
       <c r="I52" s="19"/>
@@ -1997,19 +1997,19 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="F53" s="18">
         <v>180000</v>
       </c>
       <c r="G53" s="18">
-        <v>4500000</v>
+        <v>6215216</v>
       </c>
       <c r="H53" s="19"/>
       <c r="I53" s="19"/>
@@ -2020,19 +2020,19 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="F54" s="18">
         <v>180000</v>
       </c>
       <c r="G54" s="18">
-        <v>4500000</v>
+        <v>6215216</v>
       </c>
       <c r="H54" s="19"/>
       <c r="I54" s="19"/>
@@ -2043,19 +2043,19 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F55" s="18">
-        <v>63835</v>
+        <v>180000</v>
       </c>
       <c r="G55" s="18">
-        <v>1595881</v>
+        <v>6215216</v>
       </c>
       <c r="H55" s="19"/>
       <c r="I55" s="19"/>
@@ -2066,19 +2066,19 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="E56" s="16" t="s">
         <v>55</v>
       </c>
       <c r="F56" s="18">
-        <v>39000</v>
+        <v>180000</v>
       </c>
       <c r="G56" s="18">
-        <v>975000</v>
+        <v>6215216</v>
       </c>
       <c r="H56" s="19"/>
       <c r="I56" s="19"/>
@@ -2089,19 +2089,19 @@
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="E57" s="16" t="s">
         <v>56</v>
       </c>
       <c r="F57" s="18">
-        <v>15600</v>
+        <v>180000</v>
       </c>
       <c r="G57" s="18">
-        <v>975000</v>
+        <v>6215216</v>
       </c>
       <c r="H57" s="19"/>
       <c r="I57" s="19"/>
@@ -2112,19 +2112,19 @@
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D58" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E58" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="D58" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="E58" s="16" t="s">
-        <v>41</v>
-      </c>
       <c r="F58" s="18">
-        <v>40000</v>
+        <v>180000</v>
       </c>
       <c r="G58" s="18">
-        <v>1367000</v>
+        <v>6215216</v>
       </c>
       <c r="H58" s="19"/>
       <c r="I58" s="19"/>
@@ -2135,19 +2135,19 @@
         <v>8</v>
       </c>
       <c r="C59" s="22" t="s">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="D59" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="E59" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="E59" s="22" t="s">
-        <v>42</v>
-      </c>
       <c r="F59" s="24">
-        <v>40000</v>
+        <v>180000</v>
       </c>
       <c r="G59" s="24">
-        <v>1367000</v>
+        <v>6215216</v>
       </c>
       <c r="H59" s="25"/>
       <c r="I59" s="25"/>
